--- a/burndown y trabajo de equipo/Boceto sprint.xlsx
+++ b/burndown y trabajo de equipo/Boceto sprint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Cleaver\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Cleaver\Desktop\PROYECTO\SlimeSmasher\burndown y trabajo de equipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,10 @@
   <sheets>
     <sheet name="SPRINT 1 MARCELO MORALES" sheetId="2" r:id="rId1"/>
     <sheet name="SPRINT 1 VICTOR QUIROZ" sheetId="4" r:id="rId2"/>
+    <sheet name="SPRINT 1 JORDY NAVEAS" sheetId="5" r:id="rId3"/>
+    <sheet name="SPRINT 1 KATERINNE LEIVA" sheetId="6" r:id="rId4"/>
+    <sheet name="SPRINT 1 JEAN NAIL" sheetId="7" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -44,9 +43,6 @@
   </si>
   <si>
     <t>HORAS TOTALES</t>
-  </si>
-  <si>
-    <t>Marcelo Ignacio Morales Castillo</t>
   </si>
   <si>
     <t>MEJORA DIAGRAMAS</t>
@@ -95,6 +91,72 @@
   </si>
   <si>
     <t>ESTIPULADAS</t>
+  </si>
+  <si>
+    <t>Victor Quiroz</t>
+  </si>
+  <si>
+    <t>Animacion de personajes</t>
+  </si>
+  <si>
+    <t>Diseño de armas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Reajuste de armas</t>
+  </si>
+  <si>
+    <t>Armar esquema de proyecto</t>
+  </si>
+  <si>
+    <t>ESTUDIA</t>
+  </si>
+  <si>
+    <t>Marcelo Morales</t>
+  </si>
+  <si>
+    <t>Jordy Naveas</t>
+  </si>
+  <si>
+    <t>Diseño de fondo (No concluido)</t>
+  </si>
+  <si>
+    <t>Diseño de fondo terminado</t>
+  </si>
+  <si>
+    <t>Katerinne Leiva</t>
+  </si>
+  <si>
+    <t>Sonidos (No concretados)</t>
+  </si>
+  <si>
+    <t>Movimiento en mapa</t>
+  </si>
+  <si>
+    <t>Sonidos</t>
+  </si>
+  <si>
+    <t>Controles (Proceso)</t>
+  </si>
+  <si>
+    <t>Jean Nail</t>
+  </si>
+  <si>
+    <t>Diseño Protagonista</t>
+  </si>
+  <si>
+    <t>Diseño enemigos</t>
+  </si>
+  <si>
+    <t>Animacion</t>
+  </si>
+  <si>
+    <t>Estudio</t>
+  </si>
+  <si>
+    <t>CREACION DE SPRINT</t>
   </si>
 </sst>
 </file>
@@ -201,10 +263,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,12 +281,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,7 +399,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -568,6 +630,1326 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t>Diagrama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t> del sprint (Personal)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10938792650918636"/>
+          <c:y val="0.11470802224851427"/>
+          <c:w val="0.72318976039879479"/>
+          <c:h val="0.71135034172432821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Realizada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 VICTOR QUIROZ'!$K$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B77B-4DB2-B145-606B1F8D6C6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 VICTOR QUIROZ'!$K$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B77B-4DB2-B145-606B1F8D6C6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57483358"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8B8B8B"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66329993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66329993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57483358"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t>Diagrama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t> del sprint (Personal)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10938792650918636"/>
+          <c:y val="0.11470802224851427"/>
+          <c:w val="0.72318976039879479"/>
+          <c:h val="0.71135034172432821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Realizada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 JORDY NAVEAS'!$K$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BE9-459D-85E3-95003F4D634E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 VICTOR QUIROZ'!$K$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BE9-459D-85E3-95003F4D634E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57483358"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8B8B8B"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66329993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66329993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57483358"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t>Diagrama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t> del sprint (Personal)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10938792650918636"/>
+          <c:y val="0.11470802224851427"/>
+          <c:w val="0.72318976039879479"/>
+          <c:h val="0.71135034172432821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Realizada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 KATERINNE LEIVA'!$K$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAD6-431E-A0CC-B5F4B8FAFA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 VICTOR QUIROZ'!$K$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAD6-431E-A0CC-B5F4B8FAFA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57483358"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8B8B8B"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66329993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66329993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57483358"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t>Diagrama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+              </a:rPr>
+              <a:t> del sprint (Personal)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10938792650918636"/>
+          <c:y val="0.11470802224851427"/>
+          <c:w val="0.72318976039879479"/>
+          <c:h val="0.71135034172432821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Realizada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 JEAN NAIL'!$K$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F683-4501-8672-8713B5086002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimada</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 VICTOR QUIROZ'!$K$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F683-4501-8672-8713B5086002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57483358"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8B8B8B"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66329993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66329993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57483358"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -611,30 +1993,176 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Burndown Report"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,15 +2430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -925,285 +2453,291 @@
       <c r="K2" s="10"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="9" t="s">
+      <c r="H8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>7</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <f>SUM(E7:F11)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <f>SUM(G7:H11)</f>
-        <v>7</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <f>SUM(M7:N11)</f>
         <v>5</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
         <f>SUM(O7:P11)</f>
-        <v>8</v>
-      </c>
-      <c r="P12" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="P12" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1">
         <v>15</v>
       </c>
       <c r="L16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -1213,15 +2747,15 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1">
         <v>15</v>
@@ -1237,89 +2771,160 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <f>SUM(E17:F24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <f>SUM(G17:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -1329,77 +2934,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1408,12 +2942,1881 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G6:H10)</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <f>SUM(O6:P10)</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f>G24-M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(E16:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>SUM(G16:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G6:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(E16:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>SUM(G16:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G6:H10)</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(E16:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>SUM(G16:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G6:H10)</f>
+        <v>15</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <f>SUM(O6:P10)</f>
+        <v>3</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(E16:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>SUM(G16:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/burndown y trabajo de equipo/Boceto sprint.xlsx
+++ b/burndown y trabajo de equipo/Boceto sprint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2424"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2424" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINT 1 MARCELO MORALES" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="SPRINT 1 JORDY NAVEAS" sheetId="5" r:id="rId3"/>
     <sheet name="SPRINT 1 KATERINNE LEIVA" sheetId="6" r:id="rId4"/>
     <sheet name="SPRINT 1 JEAN NAIL" sheetId="7" r:id="rId5"/>
+    <sheet name="SPRINT 1 TRABAJO GRUPAL" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -45,13 +46,7 @@
     <t>HORAS TOTALES</t>
   </si>
   <si>
-    <t>MEJORA DIAGRAMAS</t>
-  </si>
-  <si>
     <t>SPRING 1</t>
-  </si>
-  <si>
-    <t>DISEÑO NIVELES</t>
   </si>
   <si>
     <t>ESTUDIO</t>
@@ -66,25 +61,7 @@
     <t>SEMANA 2</t>
   </si>
   <si>
-    <t>COLISION DE ENEMIGOS</t>
-  </si>
-  <si>
     <t>SEMANA 3</t>
-  </si>
-  <si>
-    <t>SEM0</t>
-  </si>
-  <si>
-    <t>SEM1</t>
-  </si>
-  <si>
-    <t>SEM2</t>
-  </si>
-  <si>
-    <t>SEM3</t>
-  </si>
-  <si>
-    <t>HORAS ESTIPULADAS/REALIZADAS</t>
   </si>
   <si>
     <t>REALIZADAS</t>
@@ -96,19 +73,7 @@
     <t>Victor Quiroz</t>
   </si>
   <si>
-    <t>Animacion de personajes</t>
-  </si>
-  <si>
-    <t>Diseño de armas</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Reajuste de armas</t>
-  </si>
-  <si>
-    <t>Armar esquema de proyecto</t>
   </si>
   <si>
     <t>ESTUDIA</t>
@@ -120,43 +85,136 @@
     <t>Jordy Naveas</t>
   </si>
   <si>
-    <t>Diseño de fondo (No concluido)</t>
-  </si>
-  <si>
-    <t>Diseño de fondo terminado</t>
-  </si>
-  <si>
     <t>Katerinne Leiva</t>
-  </si>
-  <si>
-    <t>Sonidos (No concretados)</t>
-  </si>
-  <si>
-    <t>Movimiento en mapa</t>
-  </si>
-  <si>
-    <t>Sonidos</t>
-  </si>
-  <si>
-    <t>Controles (Proceso)</t>
   </si>
   <si>
     <t>Jean Nail</t>
   </si>
   <si>
-    <t>Diseño Protagonista</t>
+    <t>HORAS ESTIPULADAS/REALIZADAS (SOBRANTES)</t>
   </si>
   <si>
-    <t>Diseño enemigos</t>
+    <t>EXTRA</t>
   </si>
   <si>
-    <t>Animacion</t>
+    <t>ANIMACION DE PERSONAJES [Finalizado]</t>
   </si>
   <si>
-    <t>Estudio</t>
+    <t>DISEÑO DE ARMAS [Finalizado]</t>
   </si>
   <si>
-    <t>CREACION DE SPRINT</t>
+    <t>REAJUSTE DE ARMAS [Finalizado]</t>
+  </si>
+  <si>
+    <t>UNIFICACION DE PROYECTO [Aplazado]</t>
+  </si>
+  <si>
+    <t>DISEÑO DE ENEMIGOS [Extra]</t>
+  </si>
+  <si>
+    <t>UNIFICACION DE PROYECTO [Finalizado]</t>
+  </si>
+  <si>
+    <t>SEM 0</t>
+  </si>
+  <si>
+    <t>SEM 1</t>
+  </si>
+  <si>
+    <t>SEM 2</t>
+  </si>
+  <si>
+    <t>SEM 3</t>
+  </si>
+  <si>
+    <t>MEJORA DIAGRAMAS [Finalizado]</t>
+  </si>
+  <si>
+    <t>DISEÑO NIVELES [Finalizado]</t>
+  </si>
+  <si>
+    <t>COLISION DE ENEMIGOS [No completado]</t>
+  </si>
+  <si>
+    <t>CREACION DE SPRINT [Extra]</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION DE SPRINT [Extra]</t>
+  </si>
+  <si>
+    <t>COLISION DE ENEMIGOS [Terminado]</t>
+  </si>
+  <si>
+    <t>CREACION PRESENTACION DE SPRINT [Extra]</t>
+  </si>
+  <si>
+    <t>DISEÑO DE FONDO [Aplazado]</t>
+  </si>
+  <si>
+    <t>DISEÑO DE FONDO [TERMINADO]</t>
+  </si>
+  <si>
+    <t>COLISIONES [Extra] [Terminado]</t>
+  </si>
+  <si>
+    <t>UNIFICACION DE PROYECTO [Extra][Terminado]</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO DE CAMARA [Terminado]</t>
+  </si>
+  <si>
+    <t>ANIMACIONES DE ATAQUE [Desarrollo]</t>
+  </si>
+  <si>
+    <t>SONIDOS [No terminado]</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN MAPA [Terminado]</t>
+  </si>
+  <si>
+    <t>SONIDOS [TERMINADO]</t>
+  </si>
+  <si>
+    <t>CONTROLES [TERMINADO]</t>
+  </si>
+  <si>
+    <t>DESARROLLO UI [TERMINADO]</t>
+  </si>
+  <si>
+    <t>DISEÑO PROTAGONISTA [Terminado]</t>
+  </si>
+  <si>
+    <t>DISEÑO ENEMIGOS [Terminado]</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>HORAS</t>
+  </si>
+  <si>
+    <t>PROPUESTAS</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>HORAS ESTIPULADAS/REALIZADAS (RESTANTES)</t>
+  </si>
+  <si>
+    <t>TOTAL SPRINT</t>
+  </si>
+  <si>
+    <t>ANIMACIONES [Terminado]</t>
+  </si>
+  <si>
+    <t>ANIMACION [Desarrollo]</t>
+  </si>
+  <si>
+    <t>IA [Terminado]</t>
   </si>
 </sst>
 </file>
@@ -195,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,23 +313,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,12 +361,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,7 +1150,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,10 +1477,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,6 +2041,1056 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DIAGRAMA SPRINT 1 GRUPAL TERMINADO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16190564803125282"/>
+          <c:y val="0.14123310846091189"/>
+          <c:w val="0.70002018978396929"/>
+          <c:h val="0.65830008980972865"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Realizada</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 TRABAJO GRUPAL'!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9321-4642-995B-AD7709021992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estimada</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 TRABAJO GRUPAL'!$C$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9321-4642-995B-AD7709021992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="57483358"/>
+        <c:axId val="66329993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57483358"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66329993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66329993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="75"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57483358"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39226573161209349"/>
+          <c:y val="0.91655562285483549"/>
+          <c:w val="0.20629152722369334"/>
+          <c:h val="7.1565386387770241E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2004,7 +3145,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2041,13 +3182,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2090,7 +3231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>731520</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2136,6 +3277,49 @@
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2430,27 +3614,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -2463,7 +3650,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2473,35 +3660,35 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2510,11 +3697,11 @@
         <v>4</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2525,156 +3712,156 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="H8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>4</v>
-      </c>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>3</v>
-      </c>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <f>SUM(E7:F11)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <f>SUM(G7:H11)</f>
         <v>6</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="H12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <f>SUM(M7:N11)</f>
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
         <f>SUM(O7:P11)</f>
         <v>9</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2682,46 +3869,50 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>17</v>
+      <c r="L15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +3921,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
+      <c r="J16" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="K16" s="1">
         <v>15</v>
@@ -2745,17 +3936,26 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
+      <c r="O16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="J17" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="K17" s="1">
         <v>15</v>
@@ -2769,91 +3969,178 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
         <f>SUM(E17:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
         <f>SUM(G17:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -2866,47 +4153,527 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f>SUM(G6:H10)</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>SUM(O6:P10)</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <f>SUM(G16:H23)</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
     <mergeCell ref="G1:K2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C15:H15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -2922,424 +4689,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>8</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>SUM(G6:H10)</f>
-        <v>6</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <f>SUM(O6:P10)</f>
-        <v>10</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>9</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <f>G24-M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(E16:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <f>SUM(G16:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
@@ -3349,66 +4698,462 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f>SUM(G6:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <f>SUM(G16:H23)</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="B5:D5"/>
@@ -3417,387 +5162,65 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>5</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>SUM(G6:H10)</f>
-        <v>5</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(E16:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <f>SUM(G16:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
@@ -3807,66 +5230,469 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f>SUM(G6:H10)</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>SUM(O6:P10)</f>
+        <v>6</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <f>SUM(G16:H23)</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="B5:D5"/>
@@ -3875,405 +5701,65 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>3</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5">
-        <v>2</v>
-      </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>SUM(G6:H10)</f>
-        <v>9</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>6</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(E16:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <f>SUM(G16:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
@@ -4283,66 +5769,457 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f>SUM(G6:H10)</f>
+        <v>15</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>SUM(O6:P10)</f>
+        <v>6</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <f>SUM(G16:H23)</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="B5:D5"/>
@@ -4351,393 +6228,65 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>3</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>3</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>SUM(G6:H10)</f>
-        <v>15</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <f>SUM(O6:P10)</f>
-        <v>3</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <f>SUM(E16:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <f>SUM(G16:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
@@ -4747,76 +6296,278 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(C12-E7)</f>
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1">
+        <f>E7+J7+O7</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F1:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/burndown y trabajo de equipo/Boceto sprint.xlsx
+++ b/burndown y trabajo de equipo/Boceto sprint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2424" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2424" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINT 1 MARCELO MORALES" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="63">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Jean Nail</t>
-  </si>
-  <si>
-    <t>HORAS ESTIPULADAS/REALIZADAS (SOBRANTES)</t>
   </si>
   <si>
     <t>EXTRA</t>
@@ -216,6 +213,12 @@
   <si>
     <t>IA [Terminado]</t>
   </si>
+  <si>
+    <t>HORAS ESTIPULADAS/REALIZADAS (FALTANTES)</t>
+  </si>
+  <si>
+    <t>HORAS ESTIPULADAS/REALIZADAS ((FALTANTES)</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,33 +316,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,25 +354,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2058,7 +2035,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2095,7 +2072,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -2273,7 +2250,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2306,7 +2283,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3615,7 +3592,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3624,64 +3601,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="6" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="16" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
@@ -3689,222 +3666,222 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="10"/>
       <c r="J6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>4</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="H8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>4</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <f>SUM(E7:F11)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <f>SUM(G7:H11)</f>
         <v>6</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
         <f>SUM(M7:N11)</f>
         <v>5</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
         <f>SUM(O7:P11)</f>
         <v>9</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="4" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="J14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
@@ -3913,15 +3890,15 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="10"/>
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1">
@@ -3941,20 +3918,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="8"/>
+      <c r="J17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="1">
@@ -3974,102 +3951,102 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9">
         <v>2</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
         <f>SUM(E17:F24)</f>
         <v>6</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
         <f>SUM(G17:H24)</f>
         <v>6</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -4097,8 +4074,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:F17"/>
@@ -4107,11 +4082,11 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -4124,6 +4099,8 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
@@ -4164,7 +4141,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,64 +4151,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -4239,228 +4216,228 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="10"/>
       <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
+        <v>3</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>SUM(E6:F10)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>SUM(G6:H10)</f>
         <v>6</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <f>SUM(O6:P10)</f>
         <v>10</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -4469,15 +4446,15 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
@@ -4498,20 +4475,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="8"/>
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
@@ -4531,90 +4508,90 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9">
         <v>2</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <f>SUM(G16:H23)</f>
         <v>6</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -4709,7 +4686,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4718,64 +4695,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -4783,204 +4760,204 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="10"/>
       <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>SUM(E6:F10)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>SUM(G6:H10)</f>
         <v>5</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <f>SUM(O6:P10)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -4989,15 +4966,15 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
@@ -5018,20 +4995,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="8"/>
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
@@ -5051,102 +5028,102 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
         <v>2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <f>SUM(G16:H23)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -5240,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5250,64 +5227,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -5315,222 +5292,222 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="10"/>
       <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9">
         <v>2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>SUM(E6:F10)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>SUM(G6:H10)</f>
         <v>9</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <f>SUM(O6:P10)</f>
         <v>6</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -5539,15 +5516,15 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
@@ -5568,20 +5545,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="8"/>
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
@@ -5601,91 +5578,91 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9">
         <v>2</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <f>SUM(G16:H23)</f>
         <v>6</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -5779,71 +5756,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -5851,212 +5828,212 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="10"/>
       <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>SUM(E6:F10)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>SUM(G6:H10)</f>
         <v>15</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <f>SUM(O6:P10)</f>
         <v>6</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -6065,15 +6042,15 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
@@ -6094,20 +6071,20 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="8"/>
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
@@ -6127,92 +6104,92 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <f>SUM(G16:H23)</f>
         <v>6</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -6306,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6318,103 +6295,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="1">
         <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>41</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="1">
         <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>36</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="2"/>
+      <c r="L6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="1">
         <v>25</v>
       </c>
@@ -6423,31 +6400,31 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1">
         <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>41</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1">
         <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>36</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="1">
         <v>25</v>
       </c>
@@ -6456,45 +6433,45 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
@@ -6510,18 +6487,18 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="1">
         <f>E7+J7+O7</f>
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
@@ -6536,11 +6513,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="1">
         <v>42</v>
       </c>
